--- a/SSN_Player_Status.xlsx
+++ b/SSN_Player_Status.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="123">
   <si>
     <t>Player Name</t>
   </si>
@@ -401,6 +401,9 @@
   </si>
   <si>
     <t>Georgie Horjus</t>
+  </si>
+  <si>
+    <t>Departed</t>
   </si>
 </sst>
 </file>
@@ -1356,8 +1359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1642,7 +1645,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="D24" s="2"/>
     </row>
@@ -2202,7 +2205,7 @@
         <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="D71" s="2"/>
     </row>
@@ -2379,7 +2382,7 @@
       </c>
       <c r="B88">
         <f>COUNTIF($C$2:$C$83,A88)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2403,10 +2406,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2484,6 +2487,9 @@
       <c r="E3" s="7" t="s">
         <v>97</v>
       </c>
+      <c r="F3" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="H3" s="7" t="s">
         <v>118</v>
       </c>
@@ -2501,6 +2507,9 @@
       <c r="E4" s="7" t="s">
         <v>56</v>
       </c>
+      <c r="F4" s="7" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
@@ -2520,6 +2529,9 @@
       <c r="A6" s="7" t="s">
         <v>79</v>
       </c>
+      <c r="B6" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="C6" s="7" t="s">
         <v>50</v>
       </c>
@@ -2531,8 +2543,16 @@
       <c r="A7" s="7" t="s">
         <v>81</v>
       </c>
+      <c r="B7" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="E7" s="7" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/SSN_Player_Status.xlsx
+++ b/SSN_Player_Status.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2020 Contracted Players" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="123">
   <si>
     <t>Player Name</t>
   </si>
@@ -1359,8 +1359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1554,7 +1554,9 @@
       <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1600,7 +1602,9 @@
       <c r="B20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1611,7 +1615,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D21" s="2"/>
     </row>
@@ -1622,7 +1626,9 @@
       <c r="B22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2037,7 +2043,7 @@
         <v>44</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D57" s="2"/>
     </row>
@@ -2085,7 +2091,7 @@
         <v>44</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D61" s="2"/>
     </row>
@@ -2121,7 +2127,7 @@
         <v>12</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="D64" s="2"/>
     </row>
@@ -2355,7 +2361,7 @@
       </c>
       <c r="B85">
         <f>COUNTIF($C$2:$C$83,A85)</f>
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2364,7 +2370,7 @@
       </c>
       <c r="B86">
         <f>COUNTIF($C$2:$C$83,A86)</f>
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2382,7 +2388,7 @@
       </c>
       <c r="B88">
         <f>COUNTIF($C$2:$C$83,A88)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2391,7 +2397,7 @@
       </c>
       <c r="B89">
         <f>COUNTBLANK(C2:C83)</f>
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2408,7 +2414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>

--- a/SSN_Player_Status.xlsx
+++ b/SSN_Player_Status.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="123">
   <si>
     <t>Player Name</t>
   </si>
@@ -1360,7 +1360,7 @@
   <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1520,7 +1520,9 @@
       <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2370,7 +2372,7 @@
       </c>
       <c r="B86">
         <f>COUNTIF($C$2:$C$83,A86)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2397,7 +2399,7 @@
       </c>
       <c r="B89">
         <f>COUNTBLANK(C2:C83)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/SSN_Player_Status.xlsx
+++ b/SSN_Player_Status.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="126">
   <si>
     <t>Player Name</t>
   </si>
@@ -397,13 +397,22 @@
     <t>Liz Watson</t>
   </si>
   <si>
-    <t>Unsure</t>
-  </si>
-  <si>
     <t>Georgie Horjus</t>
   </si>
   <si>
     <t>Departed</t>
+  </si>
+  <si>
+    <t>Re-signed 15/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re-signed 14/10 </t>
+  </si>
+  <si>
+    <t>Moves over from the Pies after missing 2020</t>
+  </si>
+  <si>
+    <t>New contract - promoted from Training Partner</t>
   </si>
 </sst>
 </file>
@@ -1357,10 +1366,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1368,7 +1377,7 @@
     <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -1411,19 +1420,19 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>35</v>
@@ -1435,7 +1444,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>35</v>
@@ -1447,35 +1456,37 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -1493,29 +1504,31 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>4</v>
@@ -1523,35 +1536,41 @@
       <c r="C13" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>4</v>
@@ -1559,11 +1578,13 @@
       <c r="C16" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>4</v>
@@ -1571,23 +1592,27 @@
       <c r="C17" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>4</v>
@@ -1599,77 +1624,77 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>7</v>
@@ -1681,7 +1706,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>7</v>
@@ -1693,7 +1718,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>7</v>
@@ -1701,47 +1726,49 @@
       <c r="C28" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>7</v>
@@ -1751,43 +1778,41 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>75</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>30</v>
@@ -1799,7 +1824,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>30</v>
@@ -1811,7 +1836,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>30</v>
@@ -1823,7 +1848,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>30</v>
@@ -1835,7 +1860,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>30</v>
@@ -1847,7 +1872,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>30</v>
@@ -1859,7 +1884,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>30</v>
@@ -1871,25 +1896,25 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D44" s="2"/>
     </row>
@@ -1931,115 +1956,119 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D48" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>99</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D51" s="2"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D54" s="2"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="2"/>
+      <c r="C55" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D56" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>44</v>
@@ -2047,11 +2076,13 @@
       <c r="C57" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D57" s="2"/>
+      <c r="D57" s="2" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>44</v>
@@ -2063,7 +2094,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>44</v>
@@ -2075,7 +2106,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>44</v>
@@ -2087,13 +2118,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D61" s="2"/>
     </row>
@@ -2123,55 +2154,55 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>122</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C64" s="2"/>
       <c r="D64" s="2"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D65" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="D66" s="2"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="D67" s="2"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>12</v>
@@ -2183,7 +2214,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>12</v>
@@ -2195,7 +2226,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>12</v>
@@ -2207,19 +2238,19 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="D71" s="2"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>12</v>
@@ -2231,7 +2262,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>12</v>
@@ -2243,87 +2274,91 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="D74" s="2"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D75" s="2"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C76" s="2"/>
+      <c r="C76" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="D76" s="2"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D77" s="2"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D78" s="2"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="D79" s="2"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C80" s="2"/>
+      <c r="C80" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="D80" s="2"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>25</v>
@@ -2335,7 +2370,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>25</v>
@@ -2347,59 +2382,30 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="D83" s="2"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>117</v>
+      </c>
+      <c r="B84" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>75</v>
-      </c>
-      <c r="B85">
-        <f>COUNTIF($C$2:$C$83,A85)</f>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>72</v>
-      </c>
-      <c r="B86">
-        <f>COUNTIF($C$2:$C$83,A86)</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>52</v>
-      </c>
-      <c r="B87">
-        <f>COUNTIF($C$2:$C$83,A87)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>13</v>
-      </c>
-      <c r="B88">
-        <f>COUNTIF($C$2:$C$83,A88)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>120</v>
-      </c>
-      <c r="B89">
-        <f>COUNTBLANK(C2:C83)</f>
-        <v>7</v>
+        <v>119</v>
+      </c>
+      <c r="B85" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2476,7 +2482,7 @@
         <v>102</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>116</v>

--- a/SSN_Player_Status.xlsx
+++ b/SSN_Player_Status.xlsx
@@ -1369,7 +1369,7 @@
   <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1618,7 +1618,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="D19" s="2"/>
     </row>
@@ -1654,7 +1654,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="D22" s="2"/>
     </row>

--- a/SSN_Player_Status.xlsx
+++ b/SSN_Player_Status.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2020 Contracted Players" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="138">
   <si>
     <t>Player Name</t>
   </si>
@@ -413,6 +413,42 @@
   </si>
   <si>
     <t>New contract - promoted from Training Partner</t>
+  </si>
+  <si>
+    <t>Re-signed 19/10</t>
+  </si>
+  <si>
+    <t>New contract - promoted from Injury Replacement</t>
+  </si>
+  <si>
+    <t>Firebirds have elected to not offer a contract</t>
+  </si>
+  <si>
+    <t>Not offered a new contract</t>
+  </si>
+  <si>
+    <t>Has advised Firebirds that she wants to move on</t>
+  </si>
+  <si>
+    <t>Moving to the Magic in 2021</t>
+  </si>
+  <si>
+    <t>Kalifa McCollin</t>
+  </si>
+  <si>
+    <t>New signing - played for the Steel this year, GA</t>
+  </si>
+  <si>
+    <t>Re-signed 18/10</t>
+  </si>
+  <si>
+    <t>TBirds have elected to not offer a contract</t>
+  </si>
+  <si>
+    <t>Has advised Tbirds that she wants to move on</t>
+  </si>
+  <si>
+    <t>Gabby Sinclair</t>
   </si>
 </sst>
 </file>
@@ -1366,10 +1402,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1514,7 +1550,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>4</v>
@@ -1523,12 +1559,12 @@
         <v>72</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>4</v>
@@ -1537,12 +1573,12 @@
         <v>72</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>4</v>
@@ -1551,12 +1587,12 @@
         <v>72</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>4</v>
@@ -1565,12 +1601,12 @@
         <v>72</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>4</v>
@@ -1579,12 +1615,12 @@
         <v>72</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>4</v>
@@ -1593,12 +1629,12 @@
         <v>72</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>4</v>
@@ -1607,48 +1643,54 @@
         <v>72</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D19" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>4</v>
@@ -1656,33 +1698,41 @@
       <c r="C22" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>7</v>
@@ -1694,7 +1744,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>7</v>
@@ -1706,7 +1756,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>7</v>
@@ -1718,7 +1768,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>7</v>
@@ -1726,13 +1776,11 @@
       <c r="C28" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>122</v>
-      </c>
+      <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>7</v>
@@ -1740,45 +1788,51 @@
       <c r="C29" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D31" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>7</v>
@@ -1788,31 +1842,29 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>52</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>30</v>
@@ -1824,7 +1876,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>30</v>
@@ -1836,7 +1888,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>30</v>
@@ -1848,7 +1900,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>30</v>
@@ -1860,7 +1912,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>30</v>
@@ -1872,7 +1924,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>30</v>
@@ -1884,7 +1936,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>30</v>
@@ -1896,7 +1948,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>30</v>
@@ -1908,19 +1960,19 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>10</v>
@@ -1932,7 +1984,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>10</v>
@@ -1940,11 +1992,13 @@
       <c r="C46" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D46" s="2"/>
+      <c r="D46" s="2" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>10</v>
@@ -1956,7 +2010,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>10</v>
@@ -1964,13 +2018,11 @@
       <c r="C48" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>99</v>
-      </c>
+      <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>10</v>
@@ -1978,97 +2030,99 @@
       <c r="C49" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D49" s="2"/>
+      <c r="D49" s="2" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D51" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D54" s="2"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>123</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>44</v>
@@ -2076,9 +2130,7 @@
       <c r="C57" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>123</v>
-      </c>
+      <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
@@ -2088,21 +2140,25 @@
         <v>44</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D58" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D59" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
@@ -2112,25 +2168,29 @@
         <v>44</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D60" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D61" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>44</v>
@@ -2142,7 +2202,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>44</v>
@@ -2154,103 +2214,111 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C64" s="2"/>
+      <c r="C64" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="D64" s="2"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>125</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="D65" s="2"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>121</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C66" s="2"/>
       <c r="D66" s="2"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D67" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D68" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D69" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D70" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>75</v>
-      </c>
-      <c r="D71" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>12</v>
@@ -2262,19 +2330,19 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="D73" s="2"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>12</v>
@@ -2286,7 +2354,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>12</v>
@@ -2298,79 +2366,79 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D76" s="2"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D77" s="2"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="D78" s="2"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="D79" s="2"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D80" s="2"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D81" s="2"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>25</v>
@@ -2382,7 +2450,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>25</v>
@@ -2394,17 +2462,39 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="B84" t="s">
         <v>25</v>
       </c>
+      <c r="C84" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>45</v>
+      </c>
+      <c r="B85" t="s">
+        <v>25</v>
+      </c>
+      <c r="C85" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>117</v>
+      </c>
+      <c r="B86" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>119</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B87" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2420,10 +2510,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2470,7 +2560,7 @@
         <v>71</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>47</v>
@@ -2493,16 +2583,19 @@
         <v>73</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>89</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>43</v>
+        <v>104</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>118</v>
@@ -2513,16 +2606,19 @@
         <v>76</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>105</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2530,13 +2626,16 @@
         <v>77</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>9</v>
+        <v>56</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2544,13 +2643,16 @@
         <v>79</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>22</v>
+        <v>132</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -2558,14 +2660,38 @@
         <v>81</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>85</v>
+        <v>20</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="7" t="s">
         <v>16</v>
       </c>
     </row>

--- a/SSN_Player_Status.xlsx
+++ b/SSN_Player_Status.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="141">
   <si>
     <t>Player Name</t>
   </si>
@@ -449,6 +449,15 @@
   </si>
   <si>
     <t>Gabby Sinclair</t>
+  </si>
+  <si>
+    <t>Re-signed 20/10</t>
+  </si>
+  <si>
+    <t>Lightning have elected to not offer a contract</t>
+  </si>
+  <si>
+    <t>Re-signed 21/10</t>
   </si>
 </sst>
 </file>
@@ -1404,8 +1413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T48" sqref="T48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1852,67 +1861,75 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>30</v>
@@ -1924,19 +1941,19 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>30</v>
@@ -1948,7 +1965,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>30</v>
@@ -2162,7 +2179,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>44</v>
@@ -2171,12 +2188,12 @@
         <v>72</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>44</v>
@@ -2185,48 +2202,54 @@
         <v>72</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D62" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D63" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D64" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>44</v>
@@ -2262,7 +2285,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>12</v>
@@ -2271,12 +2294,12 @@
         <v>72</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>12</v>
@@ -2290,47 +2313,49 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D72" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>12</v>
@@ -2338,35 +2363,41 @@
       <c r="C73" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D73" s="2"/>
+      <c r="D73" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D74" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D75" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>12</v>
@@ -2513,7 +2544,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2565,6 +2596,9 @@
       <c r="C2" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="D2" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="E2" s="7" t="s">
         <v>96</v>
       </c>
@@ -2588,6 +2622,9 @@
       <c r="C3" s="7" t="s">
         <v>89</v>
       </c>
+      <c r="D3" s="7" t="s">
+        <v>94</v>
+      </c>
       <c r="E3" s="7" t="s">
         <v>137</v>
       </c>
@@ -2595,7 +2632,7 @@
         <v>104</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>118</v>
@@ -2611,6 +2648,9 @@
       <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="D4" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>97</v>
       </c>
@@ -2618,7 +2658,7 @@
         <v>105</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2635,7 +2675,10 @@
         <v>56</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2652,7 +2695,10 @@
         <v>132</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>43</v>
+        <v>107</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -2668,6 +2714,12 @@
       <c r="E7" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="F7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
@@ -2676,6 +2728,9 @@
       <c r="E8" s="7" t="s">
         <v>22</v>
       </c>
+      <c r="F8" s="7" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
@@ -2683,6 +2738,9 @@
       </c>
       <c r="E9" s="7" t="s">
         <v>101</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
